--- a/biology/Zoologie/Camaricus/Camaricus.xlsx
+++ b/biology/Zoologie/Camaricus/Camaricus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Camaricus est un genre d'araignées aranéomorphes de la famille des Thomisidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Camaricus est un genre d'araignées aranéomorphes de la famille des Thomisidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Afrique subsaharienne, en Asie du Sud-Est, en Asie du Sud, en Asie de l'Est et en Nouvelle-Calédonie[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Afrique subsaharienne, en Asie du Sud-Est, en Asie du Sud, en Asie de l'Est et en Nouvelle-Calédonie.
 </t>
         </is>
       </c>
@@ -542,13 +556,15 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le céphalothorax de forme quadrangulaire est modérément haut et plus large vers l'avant[2].
-Les yeux sont placés sur deux lignes recourbées avec les yeux médians espacés et proches des yeux latéraux. Le quadrangle oculaire est plus large en arrière que vers l'avant. Les yeux les plus grands sont les latéraux antérieurs suivis des latéraux postérieurs, des médians antérieurs et des médians postérieurs[2].
-Le clypéus est haut et large. Le sternum est plus long que large. Le labium est plus long que large[2].
-Les pattes sont modérément courtes avec des épines peu développées[2].
-L'abdomen est oblong à sub-oblong avec des marques dorsales[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le céphalothorax de forme quadrangulaire est modérément haut et plus large vers l'avant.
+Les yeux sont placés sur deux lignes recourbées avec les yeux médians espacés et proches des yeux latéraux. Le quadrangle oculaire est plus large en arrière que vers l'avant. Les yeux les plus grands sont les latéraux antérieurs suivis des latéraux postérieurs, des médians antérieurs et des médians postérieurs.
+Le clypéus est haut et large. Le sternum est plus long que large. Le labium est plus long que large.
+Les pattes sont modérément courtes avec des épines peu développées.
+L'abdomen est oblong à sub-oblong avec des marques dorsales.
 </t>
         </is>
       </c>
@@ -577,9 +593,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon World Spider Catalog                                (version 20.5, 06/01/2020)[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon World Spider Catalog                                (version 20.5, 06/01/2020) :
 Camaricus bipunctatus Bastawade, 2002
 Camaricus castaneiceps Berland, 1924
 Camaricus chayani Biswas &amp; Raychaudhuri, 2017
@@ -622,7 +640,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Thorell, 1887 : Viaggio di L. Fea in Birmania e regioni vicine. II. Primo saggio sui ragni birmani. Annali del Museo civico di storia naturale di Genova, vol. 25, p. 5-417 (texte intégral).</t>
         </is>
